--- a/biology/Zoologie/Boulengerula_taitana/Boulengerula_taitana.xlsx
+++ b/biology/Zoologie/Boulengerula_taitana/Boulengerula_taitana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boulengerula taitana est une espèce de gymnophiones de la famille des Herpelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boulengerula taitana est une espèce de gymnophiones de la famille des Herpelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des monts Taita dans le district de Taita-Taveta au Kenya. Elle se rencontre généralement entre 1 430 et 1 910 m d'altitude[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des monts Taita dans le district de Taita-Taveta au Kenya. Elle se rencontre généralement entre 1 430 et 1 910 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce nourrit ses larves par dermatotrophie. La peau de la femelle, riche en lipides[2], augmente d'épaisseur, et ses petits s'en nourrissent, grâce à une dent spéciale.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce nourrit ses larves par dermatotrophie. La peau de la femelle, riche en lipides, augmente d'épaisseur, et ses petits s'en nourrissent, grâce à une dent spéciale.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Loveridge, 1935 : Scientific results of an expedition to rain forest regions in eastern Africa. I. New reptiles and amphibians from East Africa. Bulletin of the Museum of Comparative Zoology. Cambridge, Massachusetts, vol. 79, p. 3-19 (texte intégral).</t>
         </is>
